--- a/video_infor_final.xlsx
+++ b/video_infor_final.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="video_infor_1" localSheetId="0">Sheet1!$A$1:$C$16</definedName>
+    <definedName name="video_infor" localSheetId="0">Sheet1!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,8 @@
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="video_infor" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="E:\hoangnhancs\C-\video_infor.csv" tab="0" comma="1">
-      <textFields count="3">
+      <textFields count="4">
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -140,6 +141,54 @@
   </si>
   <si>
     <t>[Karaoke] Tình Sầu Thiên Thu Muôn Lối - Doãn Hiếu l Beat Chuẩn Không Bè</t>
+  </si>
+  <si>
+    <t>Image path</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\(Karaoke) Đi về nhà - Đen &amp; Justatee - Beat Chuẩn.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\Con Cò Bé Bé Karaoke Nhạc Thiếu Nhi Hay - Karaoke Con Cò Bé Bé.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\Happy New Year - Abba - Karaoke.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\Karaoke - CỐ GIANG TÌNH - New Rap (Ballad Version) - Phát Hồ x JokeS Bii.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\Karaoke - Trúc Xinh (Ciray Remix) - Minh Vương M4U ft. Việt - Beat Remix.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\KARAOKE - Vợ Ơi - Lê Bảo Bình.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\Karaoke Anh Từng Cố Gắng - Nhật Phong (Beat Gốc).jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\Karaoke Thế thái _ X2X (New Version) _ Có rap.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\Shape of You - Ed Sheeran Karaoke.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\Something Just Like This - The Chainsmokers &amp; Coldplay Karaoke.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\SÓNG GIÓ KARAOKE - JACK x K-ICM [Official Video].jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\[ Karaoke Remix ] Em Băng Qua - Lập Nguyên (T-Epic Remix) - Deep House.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\[KARAOKE BEAT] AI MANG CÔ ĐƠN ĐI - K-ICM FT. APJ - ICM STUDIO.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\[Karaoke-Beat] Níu Duyên - Lê Bảo Bình - Tone Nữ.jpg</t>
+  </si>
+  <si>
+    <t>E:\Videos\Images of video\[Karaoke] Tình Sầu Thiên Thu Muôn Lối - Doãn Hiếu l Beat Chuẩn Không Bè.jpg</t>
   </si>
 </sst>
 </file>
@@ -195,7 +244,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="video_infor_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="video_infor" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,20 +510,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,10 +529,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -493,10 +543,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -504,10 +557,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -515,10 +571,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -526,10 +585,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -537,10 +599,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -548,10 +613,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -559,10 +627,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -570,10 +641,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -581,10 +655,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -592,10 +669,13 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -603,10 +683,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -614,10 +697,13 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -625,10 +711,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -636,10 +725,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -647,6 +739,9 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
     </row>
